--- a/stimuli/item_list.xlsx
+++ b/stimuli/item_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyamur/Documents/psych251/murray2025/stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C6327F1-2CC1-854C-909F-F7FEC7CF6FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DB96B1-7359-A44B-8FEE-4995C517703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="760" windowWidth="18000" windowHeight="14420" xr2:uid="{A29FB140-9261-E84F-9B78-BCF59A3BBDDB}"/>
+    <workbookView xWindow="3800" yWindow="1040" windowWidth="18000" windowHeight="14420" xr2:uid="{A29FB140-9261-E84F-9B78-BCF59A3BBDDB}"/>
   </bookViews>
   <sheets>
     <sheet name="item_list" sheetId="1" r:id="rId1"/>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B6201-D72F-7440-9D52-6E51DAEB36BD}">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -1513,10 +1513,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1541,10 +1541,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1597,10 +1597,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -1625,13 +1625,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -1639,10 +1639,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1723,13 +1723,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1751,10 +1751,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -1779,13 +1779,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -3234,7 +3234,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D51">
     <sortCondition ref="A1:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
